--- a/docs/系统内置分类.xlsx
+++ b/docs/系统内置分类.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="top 顶级分类" sheetId="1" r:id="rId1"/>
-    <sheet name="industry-code 行业分类" sheetId="2" r:id="rId2"/>
-    <sheet name="hard-coded-enum 硬编码枚举" sheetId="3" r:id="rId3"/>
+    <sheet name="company-image 公司图片分类" sheetId="4" r:id="rId2"/>
+    <sheet name="industry-code 行业分类" sheetId="2" r:id="rId3"/>
+    <sheet name="hard-coded-enum 硬编码枚举" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
   <si>
     <t>编码</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -84,11 +85,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>公司图片分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>company-environment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>company-honor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>company-image</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>company-video</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>公司视频</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司环境照片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司荣誉照片</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -96,7 +121,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,9 +151,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="宋体"/>
+      <name val="微软雅黑 Light"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑 Light"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -160,15 +192,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -473,10 +507,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -498,65 +532,99 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="4"/>
-    </row>
-    <row r="5" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-    </row>
-    <row r="6" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-    </row>
-    <row r="7" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-    </row>
-    <row r="8" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-    </row>
-    <row r="9" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-    </row>
-    <row r="10" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
+      <c r="C4" s="3"/>
+    </row>
+    <row r="5" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="4"/>
+    </row>
+    <row r="6" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+    </row>
+    <row r="7" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+    </row>
+    <row r="8" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+    </row>
+    <row r="9" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+    </row>
+    <row r="10" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+    </row>
+    <row r="11" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+    </row>
+    <row r="12" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+    </row>
+    <row r="13" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+    </row>
+    <row r="14" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+    </row>
+    <row r="15" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+    </row>
+    <row r="16" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -567,10 +635,80 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="29.5" customWidth="1"/>
+    <col min="2" max="2" width="20.25" customWidth="1"/>
+    <col min="3" max="3" width="19.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+    </row>
+    <row r="3" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+    </row>
+    <row r="4" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+    </row>
+    <row r="5" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+    </row>
+    <row r="6" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -591,18 +729,18 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -612,12 +750,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -638,27 +776,27 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>20</v>
+      <c r="A4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/docs/系统内置分类.xlsx
+++ b/docs/系统内置分类.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="top 顶级分类" sheetId="1" r:id="rId1"/>
-    <sheet name="company-image 公司图片分类" sheetId="4" r:id="rId2"/>
-    <sheet name="industry-code 行业分类" sheetId="2" r:id="rId3"/>
-    <sheet name="hard-coded-enum 硬编码枚举" sheetId="3" r:id="rId4"/>
+    <sheet name="job-image 职位图片" sheetId="5" r:id="rId2"/>
+    <sheet name="company-image 公司图片分类" sheetId="4" r:id="rId3"/>
+    <sheet name="industry-code 行业分类" sheetId="2" r:id="rId4"/>
+    <sheet name="hard-coded-enum 硬编码枚举" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="31">
   <si>
     <t>编码</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -114,6 +115,22 @@
   </si>
   <si>
     <t>公司荣誉照片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>job-image</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>职位图片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>job-environment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作环境照片</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -510,7 +527,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A6" sqref="A6:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -572,8 +589,12 @@
       <c r="C5" s="4"/>
     </row>
     <row r="6" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
+      <c r="A6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="C6" s="4"/>
     </row>
     <row r="7" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -635,10 +656,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -661,6 +682,67 @@
     </row>
     <row r="2" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+    </row>
+    <row r="3" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+    </row>
+    <row r="4" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+    </row>
+    <row r="5" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="29.5" customWidth="1"/>
+    <col min="2" max="2" width="20.25" customWidth="1"/>
+    <col min="3" max="3" width="19.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B2" s="7" t="s">
@@ -703,7 +785,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -750,7 +832,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>

--- a/docs/系统内置分类.xlsx
+++ b/docs/系统内置分类.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="33">
   <si>
     <t>编码</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -131,6 +131,14 @@
   </si>
   <si>
     <t>工作环境照片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>job-fun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作趣事照片</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -659,7 +667,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -691,8 +699,12 @@
       <c r="D2" s="7"/>
     </row>
     <row r="3" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
+      <c r="A3" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>32</v>
+      </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
     </row>

--- a/docs/系统内置分类.xlsx
+++ b/docs/系统内置分类.xlsx
@@ -8,17 +8,18 @@
   </bookViews>
   <sheets>
     <sheet name="top 顶级分类" sheetId="1" r:id="rId1"/>
-    <sheet name="job-image 职位图片" sheetId="5" r:id="rId2"/>
-    <sheet name="company-image 公司图片分类" sheetId="4" r:id="rId3"/>
-    <sheet name="industry-code 行业分类" sheetId="2" r:id="rId4"/>
-    <sheet name="hard-coded-enum 硬编码枚举" sheetId="3" r:id="rId5"/>
+    <sheet name="applicant-image 应聘者图片" sheetId="6" r:id="rId2"/>
+    <sheet name="job-image 职位图片" sheetId="5" r:id="rId3"/>
+    <sheet name="company-image 公司图片分类" sheetId="4" r:id="rId4"/>
+    <sheet name="industry-code 行业分类" sheetId="2" r:id="rId5"/>
+    <sheet name="hard-coded-enum 硬编码枚举" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="37">
   <si>
     <t>编码</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -48,97 +49,115 @@
     <t>写死在系统中的枚举编码</t>
   </si>
   <si>
+    <t>company-logo</t>
+  </si>
+  <si>
+    <t>公司LOGO</t>
+  </si>
+  <si>
+    <t>company-licence</t>
+  </si>
+  <si>
+    <t>公司营业执照</t>
+  </si>
+  <si>
+    <t>it</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>edu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IT行业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教育行业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>industry-code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司图片分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>company-environment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>company-honor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>company-image</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>company-video</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司视频</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司环境照片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司荣誉照片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>job-image</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>职位图片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>job-environment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作环境照片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>job-fun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作趣事照片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应聘者图片分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>applicant-image</t>
-  </si>
-  <si>
-    <t>应聘图片分类</t>
-  </si>
-  <si>
-    <t>company-logo</t>
-  </si>
-  <si>
-    <t>公司LOGO</t>
-  </si>
-  <si>
-    <t>company-licence</t>
-  </si>
-  <si>
-    <t>公司营业执照</t>
-  </si>
-  <si>
-    <t>it</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>edu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IT行业</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>教育行业</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>industry-code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公司图片分类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>company-environment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>company-honor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>company-image</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>company-video</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公司视频</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公司环境照片</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公司荣誉照片</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>job-image</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>职位图片</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>job-environment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工作环境照片</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>job-fun</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工作趣事照片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>applicant-study</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习历程照片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>applicant-life</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生活风采照片</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -535,7 +554,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:B6"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -558,7 +577,7 @@
     </row>
     <row r="2" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
@@ -580,28 +599,28 @@
     </row>
     <row r="4" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C4" s="3"/>
     </row>
     <row r="5" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C5" s="4"/>
     </row>
     <row r="6" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C6" s="4"/>
     </row>
@@ -667,7 +686,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -690,20 +709,20 @@
     </row>
     <row r="2" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
     </row>
     <row r="3" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
@@ -728,6 +747,71 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="29.5" customWidth="1"/>
+    <col min="2" max="2" width="20.25" customWidth="1"/>
+    <col min="3" max="3" width="19.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+    </row>
+    <row r="3" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+    </row>
+    <row r="4" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+    </row>
+    <row r="5" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
@@ -755,20 +839,20 @@
     </row>
     <row r="2" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
     </row>
     <row r="3" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
@@ -797,7 +881,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -824,18 +908,18 @@
     </row>
     <row r="2" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -844,7 +928,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -871,26 +955,26 @@
     </row>
     <row r="2" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
